--- a/data/trans_orig/P1415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>16091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9527</v>
+        <v>9424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25751</v>
+        <v>26181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02287380503153407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01354269079642854</v>
+        <v>0.01339576540734377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0366055214366401</v>
+        <v>0.037217246291072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>10259</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5258</v>
+        <v>5222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18415</v>
+        <v>17905</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01471828174257272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007543722501713731</v>
+        <v>0.007491824573607572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0264185480746517</v>
+        <v>0.02568641890447252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -784,19 +784,19 @@
         <v>26350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17019</v>
+        <v>17747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38326</v>
+        <v>39029</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01881473293630449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01215202110299852</v>
+        <v>0.01267202250100958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02736551171703504</v>
+        <v>0.02786744437230004</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>687378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677718</v>
+        <v>677288</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>693942</v>
+        <v>694045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.977126194968466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9633944785633599</v>
+        <v>0.9627827537089279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9864573092035714</v>
+        <v>0.9866042345926562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>640</v>
@@ -834,19 +834,19 @@
         <v>686791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>678635</v>
+        <v>679145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>691792</v>
+        <v>691828</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9852817182574273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9735814519253483</v>
+        <v>0.9743135810955276</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9924562774982862</v>
+        <v>0.9925081754263924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1299</v>
@@ -855,19 +855,19 @@
         <v>1374169</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1362193</v>
+        <v>1361490</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1383500</v>
+        <v>1382772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811852670636955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9726344882829649</v>
+        <v>0.9721325556277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.987847978897001</v>
+        <v>0.9873279774989904</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>16866</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9747</v>
+        <v>10090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28226</v>
+        <v>26959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01656847587285491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009575235508515419</v>
+        <v>0.009912594269774993</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02772819842463077</v>
+        <v>0.02648411662225076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>7450</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14754</v>
+        <v>15598</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007240339904423427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003105812130499245</v>
+        <v>0.003133483920997565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01433820584156492</v>
+        <v>0.01515902716478326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1001,19 +1001,19 @@
         <v>24316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15420</v>
+        <v>15878</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35990</v>
+        <v>36553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01187928376589072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007533122548005555</v>
+        <v>0.007756967673507791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01758259311034445</v>
+        <v>0.01785744733983691</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1001081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>989721</v>
+        <v>990988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1008200</v>
+        <v>1007857</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9834315241271451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9722718015753691</v>
+        <v>0.9735158833777491</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9904247644914844</v>
+        <v>0.9900874057302246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>931</v>
@@ -1051,19 +1051,19 @@
         <v>1021523</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1014219</v>
+        <v>1013375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025777</v>
+        <v>1025749</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9927596600955766</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9856617941584349</v>
+        <v>0.9848409728352164</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9968941878695008</v>
+        <v>0.9968665160790025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1852</v>
@@ -1072,19 +1072,19 @@
         <v>2022605</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2010931</v>
+        <v>2010368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2031501</v>
+        <v>2031043</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9881207162341092</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9824174068896556</v>
+        <v>0.9821425526601631</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9924668774519947</v>
+        <v>0.9922430323264922</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>9916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4610</v>
+        <v>4282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20142</v>
+        <v>19240</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01308895765948539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006084392880169653</v>
+        <v>0.005652433655319775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02658596178477634</v>
+        <v>0.02539496881439342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1197,19 +1197,19 @@
         <v>9992</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4890</v>
+        <v>4908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17052</v>
+        <v>17669</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01285640061512619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006292621950128847</v>
+        <v>0.006315067684513856</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02194076461389018</v>
+        <v>0.02273434055012367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1218,19 +1218,19 @@
         <v>19908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12189</v>
+        <v>11642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32004</v>
+        <v>30465</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01297119794787591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007942018690278474</v>
+        <v>0.007585450779938234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02085214676012692</v>
+        <v>0.01984980277263246</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>747707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>737481</v>
+        <v>738383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753013</v>
+        <v>753341</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9869110423405146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9734140382152225</v>
+        <v>0.9746050311856068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9939156071198303</v>
+        <v>0.9943475663446802</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>695</v>
@@ -1268,19 +1268,19 @@
         <v>767182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760122</v>
+        <v>759505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>772284</v>
+        <v>772266</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9871435993848738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9780592353861097</v>
+        <v>0.977265659449878</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937073780498711</v>
+        <v>0.9936849323154862</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1376</v>
@@ -1289,19 +1289,19 @@
         <v>1514889</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1502793</v>
+        <v>1504332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522608</v>
+        <v>1523155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9870288020521241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9791478532398743</v>
+        <v>0.9801501972273674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9920579813097216</v>
+        <v>0.9924145492200616</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>14097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7886</v>
+        <v>6837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25114</v>
+        <v>24368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0148742449846587</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00832127842874978</v>
+        <v>0.007214069011583888</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0264989249233313</v>
+        <v>0.02571174837030468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1414,19 +1414,19 @@
         <v>9428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3949</v>
+        <v>3920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19064</v>
+        <v>18478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008962461316162117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003754154113885388</v>
+        <v>0.003726389123339023</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01812293421031222</v>
+        <v>0.01756634682537818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1435,19 +1435,19 @@
         <v>23525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14866</v>
+        <v>14688</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37851</v>
+        <v>39057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01176438019944366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007434357017046737</v>
+        <v>0.007345074111986495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01892901387518665</v>
+        <v>0.01953216456671982</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>933642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>922625</v>
+        <v>923371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>939853</v>
+        <v>940902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9851257550153413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9735010750766685</v>
+        <v>0.9742882516296951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9916787215712501</v>
+        <v>0.9927859309884162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>995</v>
@@ -1485,19 +1485,19 @@
         <v>1042473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1032837</v>
+        <v>1033423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1047952</v>
+        <v>1047981</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9910375386838379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9818770657896878</v>
+        <v>0.9824336531746219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9962458458861146</v>
+        <v>0.996273610876661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1893</v>
@@ -1506,19 +1506,19 @@
         <v>1976115</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1961789</v>
+        <v>1960583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1984774</v>
+        <v>1984952</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9882356198005563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9810709861248134</v>
+        <v>0.98046783543328</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9925656429829532</v>
+        <v>0.9926549258880135</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>56970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43695</v>
+        <v>42679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76357</v>
+        <v>74335</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01662501586766238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0127510950300598</v>
+        <v>0.01245467498800649</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02228251642670947</v>
+        <v>0.02169238821027855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1631,19 +1631,19 @@
         <v>37129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26367</v>
+        <v>25936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52740</v>
+        <v>51562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01044381157534716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007416684957972974</v>
+        <v>0.007295488764144104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01483497280142697</v>
+        <v>0.01450355128762211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1652,19 +1652,19 @@
         <v>94099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76559</v>
+        <v>77024</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116446</v>
+        <v>118432</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01347761169614811</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01096535531725188</v>
+        <v>0.01103203602405748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01667826142126302</v>
+        <v>0.01696273293150695</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3369809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3350422</v>
+        <v>3352444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3383084</v>
+        <v>3384100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9833749841323376</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9777174835732898</v>
+        <v>0.9783076117897214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.98724890496994</v>
+        <v>0.9875453250119935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3261</v>
@@ -1702,19 +1702,19 @@
         <v>3517969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3502358</v>
+        <v>3503536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3528731</v>
+        <v>3529162</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9895561884246529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.985165027198573</v>
+        <v>0.9854964487123778</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.992583315042027</v>
+        <v>0.9927045112358559</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6420</v>
@@ -1723,19 +1723,19 @@
         <v>6887778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6865431</v>
+        <v>6863445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6905318</v>
+        <v>6904853</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9865223883038519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9833217385787368</v>
+        <v>0.9830372670684931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.989034644682748</v>
+        <v>0.9889679639759426</v>
       </c>
     </row>
     <row r="18">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7911</v>
+        <v>7709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002935009255559477</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01172314381505984</v>
+        <v>0.01142369399992249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2088,19 +2088,19 @@
         <v>7338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2941</v>
+        <v>3145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14204</v>
+        <v>14698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01090617369437821</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004371383863304366</v>
+        <v>0.004674035447637729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02111103073340093</v>
+        <v>0.0218446048686303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2109,19 +2109,19 @@
         <v>9319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3986</v>
+        <v>4502</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17139</v>
+        <v>17030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006914791899185702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002957857304217136</v>
+        <v>0.003340360306723182</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.012717911559689</v>
+        <v>0.01263676821328787</v>
       </c>
     </row>
     <row r="5">
@@ -2138,7 +2138,7 @@
         <v>672819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666889</v>
+        <v>667091</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>674800</v>
@@ -2147,7 +2147,7 @@
         <v>0.9970649907444405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9882768561849407</v>
+        <v>0.9885763060000787</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2159,19 +2159,19 @@
         <v>665501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>658635</v>
+        <v>658141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>669898</v>
+        <v>669694</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9890938263056218</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9788889692665991</v>
+        <v>0.9781553951313697</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9956286161366956</v>
+        <v>0.9953259645523622</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1309</v>
@@ -2180,19 +2180,19 @@
         <v>1338320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1330500</v>
+        <v>1330609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1343653</v>
+        <v>1343137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9930852081008142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9872820884403111</v>
+        <v>0.9873632317867125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.997042142695783</v>
+        <v>0.9966596396932772</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>9238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4266</v>
+        <v>4415</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17334</v>
+        <v>17033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009035268947816212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004172008168659364</v>
+        <v>0.004317952694958623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01695403413414168</v>
+        <v>0.01665889260109688</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -2305,19 +2305,19 @@
         <v>20347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12936</v>
+        <v>12169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30298</v>
+        <v>29984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01950936991699775</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01240372196293762</v>
+        <v>0.01166781742891323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02905109456432883</v>
+        <v>0.02875063423090506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2326,19 +2326,19 @@
         <v>29585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20229</v>
+        <v>20348</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42198</v>
+        <v>41476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0143242552463196</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009794684162168641</v>
+        <v>0.009852137998447924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02043128763894871</v>
+        <v>0.02008189002588381</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1013193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1005097</v>
+        <v>1005398</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018165</v>
+        <v>1018016</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9909647310521837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9830459658658585</v>
+        <v>0.9833411073989031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958279918313406</v>
+        <v>0.9956820473050414</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>957</v>
@@ -2376,19 +2376,19 @@
         <v>1022566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012615</v>
+        <v>1012929</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1029977</v>
+        <v>1030744</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9804906300830022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.970948905435671</v>
+        <v>0.9712493657690945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9875962780370624</v>
+        <v>0.9883321825710866</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1899</v>
@@ -2397,19 +2397,19 @@
         <v>2035759</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2023146</v>
+        <v>2023868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2045115</v>
+        <v>2044996</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9856757447536804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9795687123610514</v>
+        <v>0.9799181099741162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902053158378313</v>
+        <v>0.9901478620015521</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>4456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10143</v>
+        <v>9772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005867128174815821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002197264045103498</v>
+        <v>0.002171217273805624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01335342722112456</v>
+        <v>0.01286487283969035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2522,19 +2522,19 @@
         <v>18662</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10788</v>
+        <v>11166</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29680</v>
+        <v>30097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02377289861415653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0137420973941664</v>
+        <v>0.01422454818750674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0378087732057199</v>
+        <v>0.03833901197404593</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -2543,19 +2543,19 @@
         <v>23118</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14999</v>
+        <v>14509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34568</v>
+        <v>35761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0149675814686003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009711101626877624</v>
+        <v>0.009393800088863837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02238062764957005</v>
+        <v>0.02315265563529244</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>755096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>749409</v>
+        <v>749780</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757883</v>
+        <v>757903</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9941328718251842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9866465727788756</v>
+        <v>0.9871351271603095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9978027359548965</v>
+        <v>0.9978287827261944</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -2593,19 +2593,19 @@
         <v>766349</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755331</v>
+        <v>754914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>774223</v>
+        <v>773845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9762271013858435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9621912267942802</v>
+        <v>0.9616609880259541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9862579026058336</v>
+        <v>0.9857754518124933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1411</v>
@@ -2614,19 +2614,19 @@
         <v>1521445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1509995</v>
+        <v>1508802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1529564</v>
+        <v>1530054</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9850324185313997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9776193723504299</v>
+        <v>0.9768473443647079</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9902888983731223</v>
+        <v>0.9906061999111362</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>19786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11944</v>
+        <v>11855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29920</v>
+        <v>31324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02110326143424725</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01273946836344158</v>
+        <v>0.01264455614952355</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03191199913536608</v>
+        <v>0.03341027211709652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -2739,19 +2739,19 @@
         <v>10096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5048</v>
+        <v>5016</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19082</v>
+        <v>17129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009672598808639942</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004835907262450864</v>
+        <v>0.004805306384466605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01828128783174886</v>
+        <v>0.0164108242277061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -2760,19 +2760,19 @@
         <v>29882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19845</v>
+        <v>20117</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43062</v>
+        <v>42622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01508155413098029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01001616513860603</v>
+        <v>0.01015305175565382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02173389025035834</v>
+        <v>0.02151144669751569</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>917781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>907647</v>
+        <v>906243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>925623</v>
+        <v>925712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9788967385657528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9680880008646346</v>
+        <v>0.9665897278829035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9872605316365585</v>
+        <v>0.9873554438504765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>949</v>
@@ -2810,19 +2810,19 @@
         <v>1033683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1024697</v>
+        <v>1026650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1038731</v>
+        <v>1038763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9903274011913601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9817187121682511</v>
+        <v>0.9835891757722939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951640927375491</v>
+        <v>0.9951946936155334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1862</v>
@@ -2831,19 +2831,19 @@
         <v>1951464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1938284</v>
+        <v>1938724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1961501</v>
+        <v>1961229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9849184458690197</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9782661097496417</v>
+        <v>0.9784885533024843</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9899838348613939</v>
+        <v>0.9898469482443459</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>35461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25592</v>
+        <v>24285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50498</v>
+        <v>48255</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01044694623710826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007539529877412198</v>
+        <v>0.007154589266589026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01487709689041332</v>
+        <v>0.01421625234481037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -2956,19 +2956,19 @@
         <v>56443</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42195</v>
+        <v>42844</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73463</v>
+        <v>72466</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01592383924014611</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01190431354688563</v>
+        <v>0.01208741156938914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0207256174914267</v>
+        <v>0.02044449505704603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -2977,19 +2977,19 @@
         <v>91903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73595</v>
+        <v>73853</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112490</v>
+        <v>114142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01324466614917378</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01060622109711153</v>
+        <v>0.01064338849280903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01621146936701997</v>
+        <v>0.01644958965521245</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3358889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3343852</v>
+        <v>3346095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3368758</v>
+        <v>3370065</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895530537628917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9851229031095865</v>
+        <v>0.9857837476551895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9924604701225878</v>
+        <v>0.9928454107334109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3285</v>
@@ -3027,19 +3027,19 @@
         <v>3488099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3471079</v>
+        <v>3472076</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3502347</v>
+        <v>3501698</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9840761607598539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9792743825085733</v>
+        <v>0.979555504942954</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9880956864531143</v>
+        <v>0.9879125884306108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6481</v>
@@ -3048,19 +3048,19 @@
         <v>6846989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6826402</v>
+        <v>6824750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6865297</v>
+        <v>6865039</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9867553338508263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9837885306329801</v>
+        <v>0.9835504103447875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9893937789028885</v>
+        <v>0.989356611507191</v>
       </c>
     </row>
     <row r="18">
